--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jainn\PyCharmMiscProject\elevenlabsaudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BDA8D4-BB51-4494-98B5-AE7E9FAEEE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C9DF9-6CFB-4405-BB58-B4240B2435D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="3710" windowWidth="19200" windowHeight="9970" xr2:uid="{E95AF4C7-5DDA-4829-BAE0-8949D4C3EEE3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Hello world</t>
+    <t>Trigonometric identities are equations involving trigonometric ratios that are true for all values of angles for which the ratios are defined.</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jainn\PyCharmMiscProject\elevenlabsaudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C9DF9-6CFB-4405-BB58-B4240B2435D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C691F31-4863-42BF-ACB7-EF1EC3F73736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="3710" windowWidth="19200" windowHeight="9970" xr2:uid="{E95AF4C7-5DDA-4829-BAE0-8949D4C3EEE3}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Trigonometric identities are equations involving trigonometric ratios that are true for all values of angles for which the ratios are defined.</t>
+  </si>
+  <si>
+    <t>Similarly, the angle of depression is the angle formed between the horizontal line through the observer’s eye and the line of sight when the object is below the level of the observer.</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FC1795-B5EB-4914-A795-51035A403499}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,6 +404,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
